--- a/sample.xlsx
+++ b/sample.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Succ</t>
+          <t>no_dir</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Succ</t>
+          <t>abs_con</t>
         </is>
       </c>
     </row>
@@ -553,7 +553,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>no_dir</t>
+          <t>abs_con</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Succ</t>
+          <t>abs_con</t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>no_file</t>
+          <t>abs_con</t>
         </is>
       </c>
     </row>
@@ -672,7 +672,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Succ</t>
+          <t>abs_con</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Succ</t>
+          <t>abs_con</t>
         </is>
       </c>
     </row>
@@ -740,7 +740,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>no_dir</t>
+          <t>abs_con</t>
         </is>
       </c>
     </row>
@@ -979,57 +979,6 @@
       <c r="C37" t="inlineStr">
         <is>
           <t>abs_con</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>GD-0007</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>red_con</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>tt.txt</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>red_con</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>tt1.txt</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>red_con</t>
         </is>
       </c>
     </row>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,7 +383,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>abs_con</t>
+          <t>no_file</t>
         </is>
       </c>
     </row>
@@ -400,7 +400,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>abs_con</t>
+          <t>no_dir</t>
         </is>
       </c>
     </row>
@@ -417,7 +417,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>abs_con</t>
+          <t>no_file</t>
         </is>
       </c>
     </row>
@@ -451,7 +451,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>abs_con</t>
+          <t>no_file</t>
         </is>
       </c>
     </row>
@@ -480,12 +480,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>J2</t>
+          <t>J1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>no_dir</t>
+          <t>abs_con</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>J2</t>
+          <t>J1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -509,476 +509,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GD-00009</t>
+          <t>GD-0006</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>J2</t>
+          <t>none</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>abs_con</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>GD-00010</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>J2</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>abs_con</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>GD-00011</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>J2</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>abs_con</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>GD-00012</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>J2</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>abs_con</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>GD-00013</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>J2</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>abs_con</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>GD-00014</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>J2</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>abs_con</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>GD-00015</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>J3</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>abs_con</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>GD-00016</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>J3</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>abs_con</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>GD-00017</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>J3</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>abs_con</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>GD-00018</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>J3</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>abs_con</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>GD-00019</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>J3</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>abs_con</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>GD-00020</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>J3</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>abs_con</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>GD-00021</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>J3</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>abs_con</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>GD-00022</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>J3</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>abs_con</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>GD-00023</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>J3</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>abs_con</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>GD-00024</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>J3</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>abs_con</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>GD-00025</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>J3</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>abs_con</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>GD-00026</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>J3</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>abs_con</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>GD-00027</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>J3</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>abs_con</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>GD-00028</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>J3</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>abs_con</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>GD-00029</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>J3</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>abs_con</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>GD-00030</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>J3</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>abs_con</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>GD-00031</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>J3</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>abs_con</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>GD-00032</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>J3</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>abs_con</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>GD-00033</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>J3</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>abs_con</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>GD-00034</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>J3</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>abs_con</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>GD-00035</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>J3</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>abs_con</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>GD-00036</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>J3</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>abs_con</t>
+          <t>red_con</t>
         </is>
       </c>
     </row>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,7 +383,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>no_file</t>
+          <t>no_dir</t>
         </is>
       </c>
     </row>
@@ -417,7 +417,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>no_file</t>
+          <t>no_dir</t>
         </is>
       </c>
     </row>
@@ -451,7 +451,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>no_file</t>
+          <t>no_dir</t>
         </is>
       </c>
     </row>
@@ -509,17 +509,170 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GD-0006</t>
+          <t>GD-00009</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>Y1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>red_con</t>
+          <t>no_dir</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GD-00010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Y1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>no_dir</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GD-00011</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Y1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>no_dir</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GD-00012</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Y1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>abs_con</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GD-00013</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Y1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>no_dir</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GD-00014</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Y1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>abs_con</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GD-00015</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Y1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>abs_con</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GD-00016</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Y1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>abs_con</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>GD-00017</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Y1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>abs_con</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>GD-00018</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Y1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>abs_con</t>
         </is>
       </c>
     </row>
